--- a/Gui_design/TopekaModelTable.xlsx
+++ b/Gui_design/TopekaModelTable.xlsx
@@ -29,7 +29,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H245"/>
+  <dimension ref="A1:H235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -135,7 +135,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>20100419</t>
+          <t>20160626</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -145,7 +145,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>FBR_MPO_Logo.bmp</t>
+          <t>Topeka_Logo.jpeg</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -449,7 +449,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Highway Skims</t>
+          <t>Network Preparation</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -489,12 +489,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Trip Generation</t>
+          <t>Build Network &amp; Skims</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Run Trip Generation</t>
+          <t>Builds Highway Skims</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -529,12 +529,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Non-Resident Models</t>
+          <t>Trip Generation</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Runs Visitor, RV, External, Com Veh, Seasonal, Univ Models</t>
+          <t>Run Trip Generation</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -569,12 +569,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Destination Choice</t>
+          <t>Trip Distribution</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Runs Destination Chocie Model</t>
+          <t>Runs Gravity Model</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -609,12 +609,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mode Choice</t>
+          <t>Pa To Od</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Runs Mode Choice Model</t>
+          <t>Runs Trips to Vehicles Model</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -649,12 +649,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Highway Assignment</t>
+          <t>Assignment</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Runs Multi Class Highway Assignment</t>
+          <t>Runs Single Class Highway Assignment</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -689,12 +689,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transit Assignment</t>
+          <t>Create Map</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Run Transit Assignment</t>
+          <t>Create Map</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Reports &amp; Maps</t>
+          <t>Create Report</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Reports &amp; Maps</t>
+          <t>Create Report</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>AreaTypeCapacity</t>
+          <t>AreaType and Facility Type</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>setbus_spd_time</t>
+          <t>FreeFlow and Congested Speed</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Computes Bus Speed from Hwy Speed</t>
+          <t>FreeFlow and Congested Speed</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -931,12 +931,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HNET</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Build  HNET</t>
+          <t>Capacity</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HSKIMS</t>
+          <t>Alpha and Beta</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Build Congested Skims for Mode Choice</t>
+          <t>Alpha and Beta</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1011,17 +1011,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Build TNET</t>
+          <t>Build Highway Network</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Build Transit Network</t>
+          <t>Build Highway Network</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1051,17 +1051,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SET TNET</t>
+          <t>Highway Network Setting</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Set Transit Network</t>
+          <t>Highway Network Setting</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1091,17 +1091,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TSKIM</t>
+          <t>STEP 1: TCSPMAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Build Transit Skims</t>
+          <t>STEP 1: TCSPMAT</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1131,12 +1131,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Disaggregate Models</t>
+          <t>Intrazonal</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Household Disaggregate Models</t>
+          <t>Intrazonal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1171,12 +1171,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Compute MDM</t>
+          <t>External Index</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Compute Mixed Density Measure</t>
+          <t>External Index</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Auto Ownership</t>
+          <t>Zero Out EE (Time)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Auto ownership Model</t>
+          <t>Zero Out EE (Time)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1251,17 +1251,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>IPF</t>
+          <t>QRM All</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>IPF results from sub-models</t>
+          <t>QRM All</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1291,17 +1291,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Resident Productions</t>
+          <t>NHB (Fill Dataview)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Resident Trip Production Model</t>
+          <t>NHB (Fill Dataview)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1331,17 +1331,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RV Model</t>
+          <t>Gravity</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Recreational Vehicle Model</t>
+          <t>Gravity</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1371,17 +1371,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Seasonal Productions</t>
+          <t>PA2OD</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>LongTerm Visitors</t>
+          <t>PA2OD</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1411,17 +1411,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>External Model</t>
+          <t>Daily Trips Quick sum matrix</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>External Model</t>
+          <t>Daily Trips Quick sum matrix</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1451,17 +1451,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>University Model</t>
+          <t>TOD External Index</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>University Model</t>
+          <t>External Index</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1491,17 +1491,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Commercial Vehicle</t>
+          <t>Add EE Trips to OD</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Commercial Vehicle Model</t>
+          <t>Add EE Trips to OD</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1531,17 +1531,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Visitor Model</t>
+          <t>Assignment Network Setting</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Visitor Model</t>
+          <t>Assignment Network Setting</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1571,17 +1571,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Compute Zonal Trn Pct</t>
+          <t>Assignment</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Computes transit walk access percents</t>
+          <t>Hwy Assignment</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1611,17 +1611,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Logsums</t>
+          <t>Add assignment fields to hwy</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Computes mode choice logsums</t>
+          <t>Add assignment fields to hwy</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Destination Choice Model</t>
+          <t>Map (FT)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Runs Destination Choice Model</t>
+          <t>CreateVoCMap</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1691,17 +1691,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Distribute School Trips</t>
+          <t>Run Report</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Runs School Trip Distribution Model</t>
+          <t>CreateReports</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1726,22 +1726,24 @@
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>24</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MC Model Direct</t>
+          <t>FILE</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Runs Mode Choice Model</t>
+          <t/>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t/>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1756,32 +1758,32 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1,1,1,1,1</t>
+          <t/>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>1,1,1,1,1</t>
+          <t/>
         </is>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MC Trip Summary</t>
+          <t>Input Highway DB</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Writes Out Mode Choice Summary</t>
+          <t>Input Highway File</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1796,37 +1798,37 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1,1,1,1,1</t>
+          <t>input\hwy\FBRMPO_Network_06-17-2013.dbd</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1,1,1,1,1</t>
+          <t>Input\hwy\Highway.dbd</t>
         </is>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Resident TOD</t>
+          <t>Highway DB</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Converts PA to OD, &amp; Applies Time-of-day factors</t>
+          <t>Output Highway File</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2,3,4,5,6</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t/>
+          <t>1</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1836,32 +1838,32 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1,1,1,1,1</t>
+          <t>output\hwy\FBRMPO_Network.dbd</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1,1,1,1,1</t>
+          <t>output\hwy\FBRMPO_Network.dbd</t>
         </is>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>HWY Assignment</t>
+          <t>Input TAZ DB</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Highway Assignment</t>
+          <t>Input TAZ Polygons and data</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1876,32 +1878,32 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1,1,1,1,1</t>
+          <t>input\taz\2010_FBRMPO_OfficialTAZs.dbd</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1,1,1,1,1</t>
+          <t>input\taz\2010_FBRMPO_OfficialTAZs.dbd</t>
         </is>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>HEVAL</t>
+          <t>Input SE Data</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Highway Evaluation</t>
+          <t>Input SE data and Area Type File</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1911,42 +1913,42 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t/>
+          <t>Color,[Input TAZ DB]</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1,0,0,0,1</t>
+          <t>input\taz\SE_Data_2010.bin</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>1,0,0,0,1</t>
+          <t>Input\taz\SE_Data_2040.bin</t>
         </is>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Get Transit Trips</t>
+          <t>TAZ DB</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Post Process MC for Transit Assignment</t>
+          <t>TAZ Polygons and data</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2,3,4,5,6</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t/>
+          <t>1</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1956,32 +1958,32 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1,0,0,0,1</t>
+          <t>output\taz\FBRMPO_OfficialTAZs.dbd</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>1,0,0,0,1</t>
+          <t>output\taz\FBRMPO_OfficialTAZs.dbd</t>
         </is>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSIT</t>
+          <t>Capacity Lookup</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Transit Assignment</t>
+          <t>Capacity lookup</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1996,72 +1998,72 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1,0,0,0,1</t>
+          <t>input\LookupTables\CapacityTable.bin</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1,0,0,0,1</t>
+          <t>input\LookupTables\CapacityTable.bin</t>
         </is>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CreateReportRoadway</t>
+          <t>SE Data</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CreateReportRoadway</t>
+          <t>Area Type</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>8</t>
+          <t/>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t/>
+          <t>1</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t/>
+          <t>Color,[Input TAZ DB]</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0,0,0,0,1</t>
+          <t>output\taz\SE_Data.bin</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0,0,0,0,1</t>
+          <t>output\taz\SE_Data.bin</t>
         </is>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CreateVoCMap</t>
+          <t>Lookup Posted Speeds</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CreateVoCMap</t>
+          <t>PstSpdToFFConversion</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2076,32 +2078,32 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0,0,0,0,1</t>
+          <t>input\LookupTables\PstSpdToFFConversion.bin</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0,0,0,0,1</t>
+          <t>input\LookupTables\PstSpdToFFConversion.bin</t>
         </is>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CreateReports</t>
+          <t>turndb</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CreateReports</t>
+          <t>Turning Prohibitions</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1,2,3,4,5,6</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2116,29 +2118,27 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0,0,0,0,1</t>
+          <t>input\LookupTables\turnpen.bin</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0,0,0,0,1</t>
+          <t>input\LookupTables\turnpen.bin</t>
         </is>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+      <c r="A53">
+        <v>10</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FILE</t>
+          <t>Log</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t/>
+          <t>Model Run Log</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2148,7 +2148,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t/>
+          <t>1</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2158,39 +2158,39 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t/>
+          <t>Reports\Log.xml</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t/>
+          <t>Reports\Log.xml</t>
         </is>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Input Highway DB</t>
+          <t>Report</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Input Highway File</t>
+          <t>Model Run Report</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
           <t/>
@@ -2198,37 +2198,37 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>input\hwy\FBRMPO_Network_06-17-2013.dbd</t>
+          <t>Reports\Model.xml</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Input\hwy\Highway.dbd</t>
+          <t>Reports\Model.xml</t>
         </is>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Highway DB</t>
+          <t>skimf</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Output Highway File</t>
+          <t>Highway Network Skims for Mode Choice</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2,3,4,5,6</t>
+          <t/>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t/>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2238,39 +2238,39 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>output\hwy\FBRMPO_Network.dbd</t>
+          <t>output\skims\HSKIMS.mtx</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>output\hwy\FBRMPO_Network.dbd</t>
+          <t>output\skims\HSKIMS.mtx</t>
         </is>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Input TAZ DB</t>
+          <t>AM_skimf</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Input TAZ Polygons and data</t>
+          <t>Highway Network Skims for Mode Choice</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="F56" t="inlineStr">
         <is>
           <t/>
@@ -2278,72 +2278,72 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>input\taz\2010_FBRMPO_OfficialTAZs.dbd</t>
+          <t>output\skims\HSKIMS_AM.mtx</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>input\taz\2010_FBRMPO_OfficialTAZs.dbd</t>
+          <t>output\skims\HSKIMS_AM.mtx</t>
         </is>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Input SE Data</t>
+          <t>OFF_skimf</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Input SE data and Area Type File</t>
+          <t>Highway Network Skims for Mode Choice</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Color,[Input TAZ DB]</t>
+          <t/>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>input\taz\SE_Data_2010.bin</t>
+          <t>output\skims\HSKIMS_OFF.mtx</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Input\taz\SE_Data_2040.bin</t>
+          <t>output\skims\HSKIMS_OFF.mtx</t>
         </is>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TAZ DB</t>
+          <t>hnetf</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>TAZ Polygons and data</t>
+          <t>Highway Network for Mode Choice and Assignment</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2,3,4,5,6</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2358,32 +2358,32 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>output\taz\FBRMPO_OfficialTAZs.dbd</t>
+          <t>output\hwy\HNET.net</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>output\taz\FBRMPO_OfficialTAZs.dbd</t>
+          <t>output\hwy\HNET.net</t>
         </is>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Capacity Lookup</t>
+          <t>rs_file</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Capacity lookup</t>
+          <t>Transit Route System</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1,4,5,7</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2398,67 +2398,67 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>input\LookupTables\CapacityTable.bin</t>
+          <t>input\transit\Transit.rts</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>input\LookupTables\CapacityTable.bin</t>
+          <t>input\transit\Transit.rts</t>
         </is>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SE Data</t>
+          <t>modetabf</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Area Type</t>
+          <t>Mode definition table for transit skims</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t/>
+          <t>1,7</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t/>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Color,[Input TAZ DB]</t>
+          <t/>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>output\taz\SE_Data.bin</t>
+          <t>input\transit\ModeTable.bin</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>output\taz\SE_Data.bin</t>
+          <t>input\transit\ModeTable.bin</t>
         </is>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Lookup Posted Speeds</t>
+          <t>curv_tb</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>PstSpdToFFConversion</t>
+          <t>Highway/transit speed curve definitions</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2478,32 +2478,32 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>input\LookupTables\PstSpdToFFConversion.bin</t>
+          <t>input\LookupTables\curvdef.bin</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>input\LookupTables\PstSpdToFFConversion.bin</t>
+          <t>input\LookupTables\curvdef.bin</t>
         </is>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>turndb</t>
+          <t>tspd_tb</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Turning Prohibitions</t>
+          <t>Transit speed curve selector by AT/FT/Mode</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>1,2,3,4,5,6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2518,32 +2518,32 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>input\LookupTables\turnpen.bin</t>
+          <t>input\LookupTables\transitspeed.bin</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>input\LookupTables\turnpen.bin</t>
+          <t>input\LookupTables\transitspeed.bin</t>
         </is>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Log</t>
+          <t>tnet_dlb_off</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Model Run Log</t>
+          <t>Off peak drive-bus transit net</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t/>
+          <t>7</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2558,32 +2558,32 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Reports\Log.xml</t>
+          <t>output\trn\dlb_OFF.tnw</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Reports\Log.xml</t>
+          <t>output\trn\dlb_OFF.tnw</t>
         </is>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Report</t>
+          <t>tnet_dlb_peak</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Model Run Report</t>
+          <t>Peak drive-bus transit net</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t/>
+          <t>7</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2598,37 +2598,37 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Reports\Model.xml</t>
+          <t>output\trn\dlb_AM.tnw</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Reports\Model.xml</t>
+          <t>output\trn\dlb_AM.tnw</t>
         </is>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>skimf</t>
+          <t>tnet_wlb_off</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Highway Network Skims for Mode Choice</t>
+          <t>Off peak walk-bus transit net</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t/>
+          <t>7</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t/>
+          <t>1</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2638,32 +2638,32 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>output\skims\HSKIMS.mtx</t>
+          <t>output\trn\wlb_OFF.tnw</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>output\skims\HSKIMS.mtx</t>
+          <t>output\trn\wlb_OFF.tnw</t>
         </is>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AM_skimf</t>
+          <t>tnet_wlb_peak</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Highway Network Skims for Mode Choice</t>
+          <t>Peak walk-bus transit net</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2678,32 +2678,32 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>output\skims\HSKIMS_AM.mtx</t>
+          <t>output\trn\wlb_AM.tnw</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>output\skims\HSKIMS_AM.mtx</t>
+          <t>output\trn\wlb_AM.tnw</t>
         </is>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>OFF_skimf</t>
+          <t>tnet_deb_off</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Highway Network Skims for Mode Choice</t>
+          <t>Off peak drive-premium transit net</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2718,32 +2718,32 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>output\skims\HSKIMS_OFF.mtx</t>
+          <t>output\trn\deb_OFF.tnw</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>output\skims\HSKIMS_OFF.mtx</t>
+          <t>output\trn\deb_OFF.tnw</t>
         </is>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>hnetf</t>
+          <t>tnet_deb_peak</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Highway Network for Mode Choice and Assignment</t>
+          <t>Peak drive-premium transit net</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2758,37 +2758,37 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>output\hwy\HNET.net</t>
+          <t>output\trn\deb_AM.tnw</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>output\hwy\HNET.net</t>
+          <t>output\trn\deb_AM.tnw</t>
         </is>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>rs_file</t>
+          <t>tnet_web_off</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Transit Route System</t>
+          <t>Off peak walk-premium transit net</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1,4,5,7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t/>
+          <t>1</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2798,37 +2798,37 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>input\transit\Transit.rts</t>
+          <t>output\trn\web_OFF.tnw</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>input\transit\Transit.rts</t>
+          <t>output\trn\web_OFF.tnw</t>
         </is>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>modetabf</t>
+          <t>tnet_web_peak</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Mode definition table for transit skims</t>
+          <t>Peak walk-premium transit net</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t/>
+          <t>1</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2838,39 +2838,39 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>input\transit\ModeTable.bin</t>
+          <t>output\trn\web_AM.tnw</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>input\transit\ModeTable.bin</t>
+          <t>output\trn\web_AM.tnw</t>
         </is>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>curv_tb</t>
+          <t>tnet_dpm1_off</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Highway/transit speed curve definitions</t>
+          <t>Off peak drive-premium 1 transit net</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
           <t/>
@@ -2878,39 +2878,39 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>input\LookupTables\curvdef.bin</t>
+          <t>output\trn\dpm1_OFF.tnw</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>input\LookupTables\curvdef.bin</t>
+          <t>output\trn\dpm1_OFF.tnw</t>
         </is>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>tspd_tb</t>
+          <t>tnet_dpm1_peak</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Transit speed curve selector by AT/FT/Mode</t>
+          <t>Peak drive-premium 1 transit net</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="F72" t="inlineStr">
         <is>
           <t/>
@@ -2918,32 +2918,32 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>input\LookupTables\transitspeed.bin</t>
+          <t>output\trn\dpm1_AM.tnw</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>input\LookupTables\transitspeed.bin</t>
+          <t>output\trn\dpm1_AM.tnw</t>
         </is>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>tnet_dlb_off</t>
+          <t>tnet_wpm1_off</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Off peak drive-bus transit net</t>
+          <t>Off peak walk-premium 1 transit net</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>7</t>
+          <t/>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2958,32 +2958,32 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>output\trn\dlb_OFF.tnw</t>
+          <t>output\trn\wpm1_OFF.tnw</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>output\trn\dlb_OFF.tnw</t>
+          <t>output\trn\wpm1_OFF.tnw</t>
         </is>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>tnet_dlb_peak</t>
+          <t>tnet_wpm1_peak</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Peak drive-bus transit net</t>
+          <t>Peak walk-premium 1 transit net</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>7</t>
+          <t/>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2998,32 +2998,32 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>output\trn\dlb_AM.tnw</t>
+          <t>output\trn\wpm1_AM.tnw</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>output\trn\dlb_AM.tnw</t>
+          <t>output\trn\wpm1_AM.tnw</t>
         </is>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>tnet_wlb_off</t>
+          <t>tnet_dpm2_off</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Off peak walk-bus transit net</t>
+          <t>Off peak drive-premium 2 transit net</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>7</t>
+          <t/>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3038,32 +3038,32 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>output\trn\wlb_OFF.tnw</t>
+          <t>output\trn\dpm2_OFF.tnw</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>output\trn\wlb_OFF.tnw</t>
+          <t>output\trn\dpm2_OFF.tnw</t>
         </is>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>tnet_wlb_peak</t>
+          <t>tnet_dpm2_peak</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Peak walk-bus transit net</t>
+          <t>Peak drive-premium 2 transit net</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>7</t>
+          <t/>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3078,32 +3078,32 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>output\trn\wlb_AM.tnw</t>
+          <t>output\trn\dpm2_AM.tnw</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>output\trn\wlb_AM.tnw</t>
+          <t>output\trn\dpm2_AM.tnw</t>
         </is>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>tnet_deb_off</t>
+          <t>tnet_wpm2_off</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Off peak drive-premium transit net</t>
+          <t>Off peak walk-premium 2 transit net</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>7</t>
+          <t/>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3118,32 +3118,32 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>output\trn\deb_OFF.tnw</t>
+          <t>output\trn\wpm2_OFF.tnw</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>output\trn\deb_OFF.tnw</t>
+          <t>output\trn\wpm2_OFF.tnw</t>
         </is>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>tnet_deb_peak</t>
+          <t>tnet_wpm2_peak</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Peak drive-premium transit net</t>
+          <t>Peak walk-premium 2 transit net</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>7</t>
+          <t/>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3158,32 +3158,32 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>output\trn\deb_AM.tnw</t>
+          <t>output\trn\wpm2_AM.tnw</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>output\trn\deb_AM.tnw</t>
+          <t>output\trn\wpm2_AM.tnw</t>
         </is>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>tnet_web_off</t>
+          <t>lb_park_offd</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Off peak walk-premium transit net</t>
+          <t>Off peak drive-bus parking access</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>7</t>
+          <t/>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3198,32 +3198,32 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>output\trn\web_OFF.tnw</t>
+          <t>output\skims\dlb_OFF_park.mtx</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>output\trn\web_OFF.tnw</t>
+          <t>output\skims\dlb_OFF_park.mtx</t>
         </is>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>tnet_web_peak</t>
+          <t>lb_park_peakd</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Peak walk-premium transit net</t>
+          <t>Peak drive-bus parking access</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>7</t>
+          <t/>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3238,27 +3238,27 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>output\trn\web_AM.tnw</t>
+          <t>output\skims\dlb_AM_park.mtx</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>output\trn\web_AM.tnw</t>
+          <t>output\skims\dlb_AM_park.mtx</t>
         </is>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>tnet_dpm1_off</t>
+          <t>eb_park_offd</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Off peak drive-premium 1 transit net</t>
+          <t>Off peak drive-express bus parking access</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3278,27 +3278,27 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>output\trn\dpm1_OFF.tnw</t>
+          <t>output\skims\deb_OFF_park.mtx</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>output\trn\dpm1_OFF.tnw</t>
+          <t>output\skims\deb_OFF_park.mtx</t>
         </is>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>tnet_dpm1_peak</t>
+          <t>eb_park_peakd</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Peak drive-premium 1 transit net</t>
+          <t>Peak drive-express bus parking access</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3318,27 +3318,27 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>output\trn\dpm1_AM.tnw</t>
+          <t>output\skims\deb_AM_park.mtx</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>output\trn\dpm1_AM.tnw</t>
+          <t>output\skims\deb_AM_park.mtx</t>
         </is>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>tnet_wpm1_off</t>
+          <t>pm1_park_offd</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Off peak walk-premium 1 transit net</t>
+          <t>Off peak drive-premium mode 1 parking access</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3358,27 +3358,27 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>output\trn\wpm1_OFF.tnw</t>
+          <t>output\skims\dpm1_OFF_park.mtx</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>output\trn\wpm1_OFF.tnw</t>
+          <t>output\skims\dpm1_OFF_park.mtx</t>
         </is>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>tnet_wpm1_peak</t>
+          <t>pm1_park_peakd</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Peak walk-premium 1 transit net</t>
+          <t>Peak drive-premium mode 1 parking access</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3398,27 +3398,27 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>output\trn\wpm1_AM.tnw</t>
+          <t>output\skims\dpm1_AM_park.mtx</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>output\trn\wpm1_AM.tnw</t>
+          <t>output\skims\dpm1_AM_park.mtx</t>
         </is>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>tnet_dpm2_off</t>
+          <t>pm2_park_offd</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Off peak drive-premium 2 transit net</t>
+          <t>Off peak drive-premium mode 2 parking access</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3438,27 +3438,27 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>output\trn\dpm2_OFF.tnw</t>
+          <t>output\skims\dpm2_OFF_park.mtx</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>output\trn\dpm2_OFF.tnw</t>
+          <t>output\skims\dpm2_OFF_park.mtx</t>
         </is>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>tnet_dpm2_peak</t>
+          <t>pm2_park_peakd</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Peak drive-premium 2 transit net</t>
+          <t>Peak drive-premium mode 2 parking access</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3478,32 +3478,32 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>output\trn\dpm2_AM.tnw</t>
+          <t>output\skims\dpm2_AM_park.mtx</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>output\trn\dpm2_AM.tnw</t>
+          <t>output\skims\dpm2_AM_park.mtx</t>
         </is>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>tnet_wpm2_off</t>
+          <t>lb_peakwf</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Off peak walk-premium 2 transit net</t>
+          <t>Peak walk-bus skims</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t/>
+          <t>3</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3518,32 +3518,32 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>output\trn\wpm2_OFF.tnw</t>
+          <t>output\skims\wlb_AM_ttskim.mtx</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>output\trn\wpm2_OFF.tnw</t>
+          <t>output\skims\wlb_AM_ttskim.mtx</t>
         </is>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>tnet_wpm2_peak</t>
+          <t>eb_peakwf</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Peak walk-premium 2 transit net</t>
+          <t>Peak walk-express bus skims</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t/>
+          <t>3</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3558,32 +3558,32 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>output\trn\wpm2_AM.tnw</t>
+          <t>output\skims\web_AM_ttskim.mtx</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>output\trn\wpm2_AM.tnw</t>
+          <t>output\skims\web_AM_ttskim.mtx</t>
         </is>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>lb_park_offd</t>
+          <t>lb_peakdf</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Off peak drive-bus parking access</t>
+          <t>Peak drive-bus skims</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t/>
+          <t>3</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3598,32 +3598,32 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>output\skims\dlb_OFF_park.mtx</t>
+          <t>output\skims\dlb_AM_ttskim.mtx</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>output\skims\dlb_OFF_park.mtx</t>
+          <t>output\skims\dlb_AM_ttskim.mtx</t>
         </is>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>lb_park_peakd</t>
+          <t>eb_peakdf</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Peak drive-bus parking access</t>
+          <t>Peak drive-express bus skims</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t/>
+          <t>3</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3638,32 +3638,32 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>output\skims\dlb_AM_park.mtx</t>
+          <t>output\skims\deb_AM_ttskim.mtx</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>output\skims\dlb_AM_park.mtx</t>
+          <t>output\skims\deb_AM_ttskim.mtx</t>
         </is>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>eb_park_offd</t>
+          <t>lb_OFFwf</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Off peak drive-express bus parking access</t>
+          <t>Off-peak walk-bus skims</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t/>
+          <t>3</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3678,32 +3678,32 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>output\skims\deb_OFF_park.mtx</t>
+          <t>output\skims\wlb_OFF_ttskim.mtx</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>output\skims\deb_OFF_park.mtx</t>
+          <t>output\skims\wlb_OFF_ttskim.mtx</t>
         </is>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>eb_park_peakd</t>
+          <t>eb_OFFwf</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Peak drive-express bus parking access</t>
+          <t>Off-peak walk-express bus skims</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t/>
+          <t>3</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3718,32 +3718,32 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>output\skims\deb_AM_park.mtx</t>
+          <t>output\skims\web_OFF_ttskim.mtx</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>output\skims\deb_AM_park.mtx</t>
+          <t>output\skims\web_OFF_ttskim.mtx</t>
         </is>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>pm1_park_offd</t>
+          <t>lb_OFFdf</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Off peak drive-premium mode 1 parking access</t>
+          <t>Off-peak drive-bus skims</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t/>
+          <t>3</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3758,32 +3758,32 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>output\skims\dpm1_OFF_park.mtx</t>
+          <t>output\skims\dlb_OFF_ttskim.mtx</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>output\skims\dpm1_OFF_park.mtx</t>
+          <t>output\skims\dlb_OFF_ttskim.mtx</t>
         </is>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>pm1_park_peakd</t>
+          <t>eb_OFFdf</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Peak drive-premium mode 1 parking access</t>
+          <t>Off-peak drive-express bus skims</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t/>
+          <t>3</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3798,32 +3798,32 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>output\skims\dpm1_AM_park.mtx</t>
+          <t>output\skims\deb_OFF_ttskim.mtx</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>output\skims\dpm1_AM_park.mtx</t>
+          <t>output\skims\deb_OFF_ttskim.mtx</t>
         </is>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>pm2_park_offd</t>
+          <t>pm1_peakwf</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Off peak drive-premium mode 2 parking access</t>
+          <t>Peak walk-premium mode 1 skims</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t/>
+          <t>3</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3838,32 +3838,32 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>output\skims\dpm2_OFF_park.mtx</t>
+          <t>output\skims\wpm1_AM_ttskim.mtx</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>output\skims\dpm2_OFF_park.mtx</t>
+          <t>output\skims\wpm1_AM_ttskim.mtx</t>
         </is>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>pm2_park_peakd</t>
+          <t>pm1_peakdf</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Peak drive-premium mode 2 parking access</t>
+          <t>Peak drive-premium mode 1 skims</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t/>
+          <t>3</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3878,27 +3878,27 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>output\skims\dpm2_AM_park.mtx</t>
+          <t>output\skims\dpm1_AM_ttskim.mtx</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>output\skims\dpm2_AM_park.mtx</t>
+          <t>output\skims\dpm1_AM_ttskim.mtx</t>
         </is>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>lb_peakwf</t>
+          <t>pm1_OFFwf</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Peak walk-bus skims</t>
+          <t>Offpeak walk-premium mode 1 skims</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3918,27 +3918,27 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>output\skims\wlb_AM_ttskim.mtx</t>
+          <t>output\skims\wpm1_OFF_ttskim.mtx</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>output\skims\wlb_AM_ttskim.mtx</t>
+          <t>output\skims\wpm1_OFF_ttskim.mtx</t>
         </is>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>eb_peakwf</t>
+          <t>pm1_OFFdf</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Peak walk-express bus skims</t>
+          <t>Offpeak drive-premium mode 1 skims</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3958,27 +3958,27 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>output\skims\web_AM_ttskim.mtx</t>
+          <t>output\skims\dpm1_OFF_ttskim.mtx</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>output\skims\web_AM_ttskim.mtx</t>
+          <t>output\skims\dpm1_OFF_ttskim.mtx</t>
         </is>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>lb_peakdf</t>
+          <t>pm2_peakwf</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Peak drive-bus skims</t>
+          <t>Peak walk-premium mode 2 skims</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3998,27 +3998,27 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>output\skims\dlb_AM_ttskim.mtx</t>
+          <t>output\skims\wpm2_AM_ttskim.mtx</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>output\skims\dlb_AM_ttskim.mtx</t>
+          <t>output\skims\wpm2_AM_ttskim.mtx</t>
         </is>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>eb_peakdf</t>
+          <t>pm2_peakdf</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Peak drive-express bus skims</t>
+          <t>Peak drive-premium mode 2 skims</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4038,27 +4038,27 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>output\skims\deb_AM_ttskim.mtx</t>
+          <t>output\skims\dpm2_AM_ttskim.mtx</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>output\skims\deb_AM_ttskim.mtx</t>
+          <t>output\skims\dpm2_AM_ttskim.mtx</t>
         </is>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>lb_OFFwf</t>
+          <t>pm2_OFFwf</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Off-peak walk-bus skims</t>
+          <t>Offpeak walk-premium mode 2 skims</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4078,27 +4078,27 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>output\skims\wlb_OFF_ttskim.mtx</t>
+          <t>output\skims\wpm2_OFF_ttskim.mtx</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>output\skims\wlb_OFF_ttskim.mtx</t>
+          <t>output\skims\wpm2_OFF_ttskim.mtx</t>
         </is>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>eb_OFFwf</t>
+          <t>pm2_OFFdf</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Off-peak walk-express bus skims</t>
+          <t>Offpeak drive-premium mode 2 skims</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4118,37 +4118,37 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>output\skims\web_OFF_ttskim.mtx</t>
+          <t>output\skims\dpm2_OFF_ttskim.mtx</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>output\skims\web_OFF_ttskim.mtx</t>
+          <t>output\skims\dpm2_OFF_ttskim.mtx</t>
         </is>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>lb_OFFdf</t>
+          <t>size Curve</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Off-peak drive-bus skims</t>
+          <t>Household Size Disaggregate Curve</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>1</t>
+          <t/>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4158,37 +4158,37 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>output\skims\dlb_OFF_ttskim.mtx</t>
+          <t>Input\LookupTables\size_Curves.csv</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>output\skims\dlb_OFF_ttskim.mtx</t>
+          <t>Input\LookupTables\size_Curves.csv</t>
         </is>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>eb_OFFdf</t>
+          <t>work Curve</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Off-peak drive-express bus skims</t>
+          <t>Household Worker Disaggregate Curve</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1</t>
+          <t/>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4198,37 +4198,37 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>output\skims\deb_OFF_ttskim.mtx</t>
+          <t>Input\LookupTables\worker_Curves.csv</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>output\skims\deb_OFF_ttskim.mtx</t>
+          <t>Input\LookupTables\worker_Curves.csv</t>
         </is>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>pm1_peakwf</t>
+          <t>inc Curve</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Peak walk-premium mode 1 skims</t>
+          <t>Household Income Disaggregate Curve</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1</t>
+          <t/>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4238,37 +4238,37 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>output\skims\wpm1_AM_ttskim.mtx</t>
+          <t>Input\LookupTables\income_Curves.csv</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>output\skims\wpm1_AM_ttskim.mtx</t>
+          <t>Input\LookupTables\income_Curves.csv</t>
         </is>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>pm1_peakdf</t>
+          <t>zIntBufferPct</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Peak drive-premium mode 1 skims</t>
+          <t>Zonal Percent with intersections</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t/>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4278,37 +4278,37 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>output\skims\dpm1_AM_ttskim.mtx</t>
+          <t>Output\taz\auto_per_hh_buffer.csv</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>output\skims\dpm1_AM_ttskim.mtx</t>
+          <t>Output\taz\auto_per_hh_buffer.csv</t>
         </is>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>pm1_OFFwf</t>
+          <t>intersections_file</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Offpeak walk-premium mode 1 skims</t>
+          <t>Intersections File</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t/>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4318,37 +4318,37 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>output\skims\wpm1_OFF_ttskim.mtx</t>
+          <t>Output\hwy\intNetwork.dbd</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>output\skims\wpm1_OFF_ttskim.mtx</t>
+          <t>Output\hwy\intNetwork.dbd</t>
         </is>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>pm1_OFFdf</t>
+          <t>AO Coeff</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Offpeak drive-premium mode 1 skims</t>
+          <t>Auto Ownership Model Coefficients</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t/>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4358,37 +4358,37 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>output\skims\dpm1_OFF_ttskim.mtx</t>
+          <t>Input\LookupTables\AO_Coeff.BIN</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>output\skims\dpm1_OFF_ttskim.mtx</t>
+          <t>Input\LookupTables\AO_Coeff.BIN</t>
         </is>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>pm2_peakwf</t>
+          <t>IPFseed</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Peak walk-premium mode 2 skims</t>
+          <t>IPF based on PUMS Seed</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t/>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4398,37 +4398,37 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>output\skims\wpm2_AM_ttskim.mtx</t>
+          <t>Input\tripgen\seed.csv</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>output\skims\wpm2_AM_ttskim.mtx</t>
+          <t>Input\tripgen\seed.csv</t>
         </is>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>pm2_peakdf</t>
+          <t>IPF_trace</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Peak drive-premium mode 2 skims</t>
+          <t>Reports IPF output</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3</t>
+          <t/>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4438,37 +4438,37 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>output\skims\dpm2_AM_ttskim.mtx</t>
+          <t>Output\tripgen\IPF_trace.rpt</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>output\skims\dpm2_AM_ttskim.mtx</t>
+          <t>Output\tripgen\IPF_trace.rpt</t>
         </is>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>pm2_OFFwf</t>
+          <t>TripRates</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Offpeak walk-premium mode 2 skims</t>
+          <t>Resident Model Trip Generation Rates</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>1</t>
+          <t/>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4478,72 +4478,72 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>output\skims\wpm2_OFF_ttskim.mtx</t>
+          <t>input\tripgen\tripRates.csv</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>output\skims\wpm2_OFF_ttskim.mtx</t>
+          <t>input\tripgen\tripRates.csv</t>
         </is>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>pm2_OFFdf</t>
+          <t>dc_productions</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Offpeak drive-premium mode 2 skims</t>
+          <t>Trip productions</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t/>
+          <t>Color,[Input TAZ DB]</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>output\skims\dpm2_OFF_ttskim.mtx</t>
+          <t>output\tripgen\householdPA.bin</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>output\skims\dpm2_OFF_ttskim.mtx</t>
+          <t>output\tripgen\householdPA.bin</t>
         </is>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>size Curve</t>
+          <t>RV Parameters</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Household Size Disaggregate Curve</t>
+          <t>Recreational Vehicle Model</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4558,32 +4558,32 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Input\LookupTables\size_Curves.csv</t>
+          <t>Input\rv\rv_parameters.csv</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Input\LookupTables\size_Curves.csv</t>
+          <t>Input\rv\rv_parameters.csv</t>
         </is>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>work Curve</t>
+          <t>SP Parameters</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Household Worker Disaggregate Curve</t>
+          <t>Seasonal Production Model</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4598,32 +4598,32 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Input\LookupTables\worker_Curves.csv</t>
+          <t>Input\seasonalhh\rates_and_occ_factors.csv</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Input\LookupTables\worker_Curves.csv</t>
+          <t>Input\seasonalhh\rates_and_occ_factors.csv</t>
         </is>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>inc Curve</t>
+          <t>EE MTX 2010</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Household Income Disaggregate Curve</t>
+          <t>External Model - 2010 Flows</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4638,37 +4638,37 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Input\LookupTables\income_Curves.csv</t>
+          <t>Input\external\2010_EE.mtx</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Input\LookupTables\income_Curves.csv</t>
+          <t>Input\external\2010_EE.mtx</t>
         </is>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>zIntBufferPct</t>
+          <t>EE ADT</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Zonal Percent with intersections</t>
+          <t>External ADT Forecast</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t/>
+          <t>3</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>2</t>
+          <t/>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4678,37 +4678,37 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Output\taz\auto_per_hh_buffer.csv</t>
+          <t>Input\external\external_awdt_forecast.csv</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Output\taz\auto_per_hh_buffer.csv</t>
+          <t>Input\external\external_awdt_forecast.csv</t>
         </is>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>intersections_file</t>
+          <t>IX Coeff</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Intersections File</t>
+          <t>Internal-External Model Coefficients</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t/>
+          <t>3</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>2</t>
+          <t/>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4718,32 +4718,32 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Output\hwy\intNetwork.dbd</t>
+          <t>Input\external\ix_coefficients.csv</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Output\hwy\intNetwork.dbd</t>
+          <t>Input\external\ix_coefficients.csv</t>
         </is>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>AO Coeff</t>
+          <t>EXT TOD Fac</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Auto Ownership Model Coefficients</t>
+          <t>Internal-External Model Time-of-day Factors</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4758,32 +4758,32 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Input\LookupTables\AO_Coeff.BIN</t>
+          <t>Input\external\ext_tod_factors.csv</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Input\LookupTables\AO_Coeff.BIN</t>
+          <t>Input\external\ext_tod_factors.csv</t>
         </is>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>IPFseed</t>
+          <t>Univ Coeff</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>IPF based on PUMS Seed</t>
+          <t>University Model Coefficients</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4798,37 +4798,37 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Input\tripgen\seed.csv</t>
+          <t>Input\university\univ_coefficients.csv</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Input\tripgen\seed.csv</t>
+          <t>Input\university\univ_coefficients.csv</t>
         </is>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>IPF_trace</t>
+          <t>ComVeh Coeff</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Reports IPF output</t>
+          <t>Commercial Vehicle Model Coefficients</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t/>
+          <t>3</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>2</t>
+          <t/>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -4838,32 +4838,32 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Output\tripgen\IPF_trace.rpt</t>
+          <t>Input\commercial_veh\cv_coefficients.csv</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Output\tripgen\IPF_trace.rpt</t>
+          <t>Input\commercial_veh\cv_coefficients.csv</t>
         </is>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TripRates</t>
+          <t>ComVeh TOD</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Resident Model Trip Generation Rates</t>
+          <t>Commercial Vehicle Time-of-day Factors</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4878,67 +4878,67 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>input\tripgen\tripRates.csv</t>
+          <t>Input\commercial_veh\cv_tod_factors.csv</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>input\tripgen\tripRates.csv</t>
+          <t>Input\commercial_veh\cv_tod_factors.csv</t>
         </is>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>dc_productions</t>
+          <t>Vis Coeff</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Trip productions</t>
+          <t>Visitor Model Coefficients</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>2</t>
+          <t/>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Color,[Input TAZ DB]</t>
+          <t/>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>output\tripgen\householdPA.bin</t>
+          <t>Input\visitors\vis_coefficients.csv</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>output\tripgen\householdPA.bin</t>
+          <t>Input\visitors\vis_coefficients.csv</t>
         </is>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>RV Parameters</t>
+          <t>TOD</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Recreational Vehicle Model</t>
+          <t>Time-of-day Factors</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4958,32 +4958,32 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Input\rv\rv_parameters.csv</t>
+          <t>Input\tod\tod_factors.csv</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Input\rv\rv_parameters.csv</t>
+          <t>Input\tod\tod_factors.csv</t>
         </is>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SP Parameters</t>
+          <t>Mode Choice Parameters</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Seasonal Production Model</t>
+          <t>Mode chocie coefficients</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4998,39 +4998,39 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Input\seasonalhh\rates_and_occ_factors.csv</t>
+          <t>input\mc\PARAMETERS.bin</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Input\seasonalhh\rates_and_occ_factors.csv</t>
+          <t>input\mc\PARAMETERS.bin</t>
         </is>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>EE MTX 2010</t>
+          <t>AM Walk Percent</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>External Model - 2010 Flows</t>
+          <t>AM walk percents (logsums)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="F125" t="inlineStr">
         <is>
           <t/>
@@ -5038,39 +5038,39 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Input\external\2010_EE.mtx</t>
+          <t>output\mc\AM_WalkPercent.mtx</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Input\external\2010_EE.mtx</t>
+          <t>output\mc\AM_WalkPercent.mtx</t>
         </is>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>EE ADT</t>
+          <t>OFF Walk Percent</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>External ADT Forecast</t>
+          <t>OFF walk percents (logsums)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="F126" t="inlineStr">
         <is>
           <t/>
@@ -5078,32 +5078,32 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Input\external\external_awdt_forecast.csv</t>
+          <t>output\mc\OFF_WalkPercent.mtx</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Input\external\external_awdt_forecast.csv</t>
+          <t>output\mc\OFF_WalkPercent.mtx</t>
         </is>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>IX Coeff</t>
+          <t>Dummy</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Internal-External Model Coefficients</t>
+          <t>Blank zonal matrix file</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3,4,5</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5118,32 +5118,32 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Input\external\ix_coefficients.csv</t>
+          <t>input\mc\Dummy.mtx</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Input\external\ix_coefficients.csv</t>
+          <t>input\mc\Dummy.mtx</t>
         </is>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>EXT TOD Fac</t>
+          <t>Coeff_DC_Size</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Internal-External Model Time-of-day Factors</t>
+          <t>Destination Choice Model  Size Term Coefficien</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5158,37 +5158,37 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Input\external\ext_tod_factors.csv</t>
+          <t>input\dc\DC_purp_mseg_constants.bin</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Input\external\ext_tod_factors.csv</t>
+          <t>input\dc\DC_purp_mseg_constants.bin</t>
         </is>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Univ Coeff</t>
+          <t>outam</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>University Model Coefficients</t>
+          <t>AM HWY vehicles for Assignment</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>3</t>
+          <t/>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t/>
+          <t>6</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5198,37 +5198,37 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Input\university\univ_coefficients.csv</t>
+          <t>output\tod\AllPurposes_AM_OD.mtx</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Input\university\univ_coefficients.csv</t>
+          <t>output\tod\AllPurposes_AM_OD.mtx</t>
         </is>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ComVeh Coeff</t>
+          <t>outmd</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Commercial Vehicle Model Coefficients</t>
+          <t>MD HWY vehicles for Assignment</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>3</t>
+          <t/>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t/>
+          <t>6</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5238,37 +5238,37 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Input\commercial_veh\cv_coefficients.csv</t>
+          <t>output\tod\AllPurposes_MD_OD.mtx</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Input\commercial_veh\cv_coefficients.csv</t>
+          <t>output\tod\AllPurposes_MD_OD.mtx</t>
         </is>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ComVeh TOD</t>
+          <t>outnt</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Commercial Vehicle Time-of-day Factors</t>
+          <t>NT HWY vehicles for Assignment</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>3</t>
+          <t/>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t/>
+          <t>6</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5278,37 +5278,37 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Input\commercial_veh\cv_tod_factors.csv</t>
+          <t>output\tod\AllPurposes_NT_OD.mtx</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Input\commercial_veh\cv_tod_factors.csv</t>
+          <t>output\tod\AllPurposes_NT_OD.mtx</t>
         </is>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Vis Coeff</t>
+          <t>outpm</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Visitor Model Coefficients</t>
+          <t>PM HWY vehicles for Assignment</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>3</t>
+          <t/>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t/>
+          <t>6</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5318,37 +5318,37 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Input\visitors\vis_coefficients.csv</t>
+          <t>output\tod\AllPurposes_PM_OD.mtx</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Input\visitors\vis_coefficients.csv</t>
+          <t>output\tod\AllPurposes_PM_OD.mtx</t>
         </is>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>TOD</t>
+          <t>outamtr</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Time-of-day Factors</t>
+          <t>AM TRN trips for Assignment</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>3</t>
+          <t/>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t/>
+          <t>6</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5358,37 +5358,37 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Input\tod\tod_factors.csv</t>
+          <t>output\asgn\trnam.mtx</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Input\tod\tod_factors.csv</t>
+          <t>output\asgn\trnam.mtx</t>
         </is>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Mode Choice Parameters</t>
+          <t>outofftr</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Mode chocie coefficients</t>
+          <t>OFF peak TRN trips for Assignment</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t/>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t/>
+          <t>6</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5398,187 +5398,187 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>input\mc\PARAMETERS.bin</t>
+          <t>output\asgn\trnoff.mtx</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>input\mc\PARAMETERS.bin</t>
+          <t>output\asgn\trnoff.mtx</t>
         </is>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>AM Walk Percent</t>
+          <t>hwyam</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>AM walk percents (logsums)</t>
+          <t>AM peak flow for Final Highway Assignment</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>5</t>
+          <t/>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t/>
+          <t>Flow Map,[Input Highway DB]</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>output\mc\AM_WalkPercent.mtx</t>
+          <t>output\asgn\AM_Hwy_LinkFlow.bin</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>output\mc\AM_WalkPercent.mtx</t>
+          <t>output\asgn\AM_Hwy_LinkFlow.bin</t>
         </is>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>OFF Walk Percent</t>
+          <t>hwymd</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>OFF walk percents (logsums)</t>
+          <t>MD offpeak flow for Final Highway Assignment</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>5</t>
+          <t/>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t/>
+          <t>Flow Map,[Input Highway DB]</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>output\mc\OFF_WalkPercent.mtx</t>
+          <t>output\asgn\MD_Hwy_LinkFlow.bin</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>output\mc\OFF_WalkPercent.mtx</t>
+          <t>output\asgn\MD_Hwy_LinkFlow.bin</t>
         </is>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Dummy</t>
+          <t>hwynt</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Blank zonal matrix file</t>
+          <t>NT peak flow for Final Highway Assignment</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>3,4,5</t>
+          <t/>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t/>
+          <t>6</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t/>
+          <t>Flow Map,[Input Highway DB]</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>input\mc\Dummy.mtx</t>
+          <t>output\asgn\NT_Hwy_LinkFlow.bin</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>input\mc\Dummy.mtx</t>
+          <t>output\asgn\NT_Hwy_LinkFlow.bin</t>
         </is>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Coeff_DC_Size</t>
+          <t>hwypm</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Destination Choice Model  Size Term Coefficien</t>
+          <t>PM offpeak flow for Final Highway Assignment</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>4</t>
+          <t/>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t/>
+          <t>6</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t/>
+          <t>Flow Map,[Input Highway DB]</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>input\dc\DC_purp_mseg_constants.bin</t>
+          <t>output\asgn\PM_Hwy_LinkFlow.bin</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>input\dc\DC_purp_mseg_constants.bin</t>
+          <t>output\asgn\PM_Hwy_LinkFlow.bin</t>
         </is>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>outam</t>
+          <t>msumf</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>AM HWY vehicles for Assignment</t>
+          <t>Mode Choice Summary Report</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5598,27 +5598,27 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>output\tod\AllPurposes_AM_OD.mtx</t>
+          <t>Reports\modesum.bin</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>output\tod\AllPurposes_AM_OD.mtx</t>
+          <t>Reports\modesum.bin</t>
         </is>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>outmd</t>
+          <t>peak_transit_flw_wlb</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>MD HWY vehicles for Assignment</t>
+          <t>Peak Transit Flow walk-local bus</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5628,7 +5628,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5638,27 +5638,27 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>output\tod\AllPurposes_MD_OD.mtx</t>
+          <t>output\asgn\AM Transit Flow wlb.bin</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>output\tod\AllPurposes_MD_OD.mtx</t>
+          <t>output\asgn\AM Transit Flow wlb.bin</t>
         </is>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>outnt</t>
+          <t>peak_transit_flw_dlb</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>NT HWY vehicles for Assignment</t>
+          <t>Peak Transit Flow drive-local bus</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5668,7 +5668,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5678,27 +5678,27 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>output\tod\AllPurposes_NT_OD.mtx</t>
+          <t>output\asgn\AM Transit Flow dlb.bin</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>output\tod\AllPurposes_NT_OD.mtx</t>
+          <t>output\asgn\AM Transit Flow dlb.bin</t>
         </is>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>outpm</t>
+          <t>off_transit_flw_wlb</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>PM HWY vehicles for Assignment</t>
+          <t>Off-peak Transit Flow walk-local bus</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5708,7 +5708,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5718,27 +5718,27 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>output\tod\AllPurposes_PM_OD.mtx</t>
+          <t>output\asgn\OFF Transit Flow wlb.bin</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>output\tod\AllPurposes_PM_OD.mtx</t>
+          <t>output\asgn\OFF Transit Flow wlb.bin</t>
         </is>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>outamtr</t>
+          <t>off_transit_flw_dlb</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>AM TRN trips for Assignment</t>
+          <t>Off peak Transit Flow drive-local bus</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5758,27 +5758,27 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>output\asgn\trnam.mtx</t>
+          <t>output\asgn\OFF Transit Flow dlb.bin</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>output\asgn\trnam.mtx</t>
+          <t>output\asgn\OFF Transit Flow dlb.bin</t>
         </is>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>outofftr</t>
+          <t>peak_walk_flow_wlb</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>OFF peak TRN trips for Assignment</t>
+          <t>Peak Walk Flow walk-local bus</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5798,27 +5798,27 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>output\asgn\trnoff.mtx</t>
+          <t>output\asgn\AM Walk Flow wlb.bin</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>output\asgn\trnoff.mtx</t>
+          <t>output\asgn\AM Walk Flow wlb.bin</t>
         </is>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>hwyam</t>
+          <t>peak_walk_flow_dlb</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>AM peak flow for Final Highway Assignment</t>
+          <t>Peak Walk Flow drive-local bus</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -5828,37 +5828,37 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Flow Map,[Input Highway DB]</t>
+          <t/>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>output\asgn\AM_Hwy_LinkFlow.bin</t>
+          <t>output\asgn\AM Walk Flow dlb.bin</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>output\asgn\AM_Hwy_LinkFlow.bin</t>
+          <t>output\asgn\AM Walk Flow dlb.bin</t>
         </is>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>hwymd</t>
+          <t>off_walk_flow_wlb</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>MD offpeak flow for Final Highway Assignment</t>
+          <t>Off peak Walk Flow walk-local bus</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -5868,37 +5868,37 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Flow Map,[Input Highway DB]</t>
+          <t/>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>output\asgn\MD_Hwy_LinkFlow.bin</t>
+          <t>output\asgn\OFF Walk Flow wlb.bin</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>output\asgn\MD_Hwy_LinkFlow.bin</t>
+          <t>output\asgn\OFF Walk Flow wlb.bin</t>
         </is>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>hwynt</t>
+          <t>off_walk_flow_dlb</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>NT peak flow for Final Highway Assignment</t>
+          <t>Off peak Walk Flow drive-local bus</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -5908,37 +5908,37 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Flow Map,[Input Highway DB]</t>
+          <t/>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>output\asgn\NT_Hwy_LinkFlow.bin</t>
+          <t>output\asgn\OFF Walk Flow dlb.bin</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>output\asgn\NT_Hwy_LinkFlow.bin</t>
+          <t>output\asgn\OFF Walk Flow dlb.bin</t>
         </is>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>hwypm</t>
+          <t>peak_transit_onoff_wlb</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>PM offpeak flow for Final Highway Assignment</t>
+          <t>Peak Transit OnOff walk-local bus</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -5948,37 +5948,37 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Flow Map,[Input Highway DB]</t>
+          <t/>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>output\asgn\PM_Hwy_LinkFlow.bin</t>
+          <t>output\asgn\AM Transit OnOff wlb.bin</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>output\asgn\PM_Hwy_LinkFlow.bin</t>
+          <t>output\asgn\AM Transit OnOff wlb.bin</t>
         </is>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>msumf</t>
+          <t>peak_transit_onoff_dlb</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Mode Choice Summary Report</t>
+          <t>Peak Transit OnOff drive-express bus</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -5998,27 +5998,27 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Reports\modesum.bin</t>
+          <t>output\asgn\AM Transit OnOff dlb.bin</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Reports\modesum.bin</t>
+          <t>output\asgn\AM Transit OnOff dlb.bin</t>
         </is>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>peak_transit_flw_wlb</t>
+          <t>off_transit_onoff_wlb</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Peak Transit Flow walk-local bus</t>
+          <t>Off peak Transit OnOff walk-local bus</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6038,27 +6038,27 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit Flow wlb.bin</t>
+          <t>output\asgn\OFF Transit OnOff wlb.bin</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit Flow wlb.bin</t>
+          <t>output\asgn\OFF Transit OnOff wlb.bin</t>
         </is>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>peak_transit_flw_dlb</t>
+          <t>off_transit_onoff_dlb</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Peak Transit Flow drive-local bus</t>
+          <t>Off peak Transit OnOff drive-local bus</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -6078,27 +6078,27 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit Flow dlb.bin</t>
+          <t>output\asgn\OFF Transit OnOff dlb.bin</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit Flow dlb.bin</t>
+          <t>output\asgn\OFF Transit OnOff dlb.bin</t>
         </is>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>off_transit_flw_wlb</t>
+          <t>peak_transit_flw_web</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Off-peak Transit Flow walk-local bus</t>
+          <t>Peak Transit Flow walk-local bus</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6118,27 +6118,27 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit Flow wlb.bin</t>
+          <t>output\asgn\AM Transit Flow web.bin</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit Flow wlb.bin</t>
+          <t>output\asgn\AM Transit Flow web.bin</t>
         </is>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>off_transit_flw_dlb</t>
+          <t>peak_transit_flw_deb</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Off peak Transit Flow drive-local bus</t>
+          <t>Peak Transit Flow drive-local bus</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6158,27 +6158,27 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit Flow dlb.bin</t>
+          <t>output\asgn\AM Transit Flow deb.bin</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit Flow dlb.bin</t>
+          <t>output\asgn\AM Transit Flow deb.bin</t>
         </is>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>peak_walk_flow_wlb</t>
+          <t>off_transit_flw_web</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Peak Walk Flow walk-local bus</t>
+          <t>Off-peak Transit Flow walk-local bus</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6198,27 +6198,27 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>output\asgn\AM Walk Flow wlb.bin</t>
+          <t>output\asgn\OFF Transit Flow web.bin</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>output\asgn\AM Walk Flow wlb.bin</t>
+          <t>output\asgn\OFF Transit Flow web.bin</t>
         </is>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>peak_walk_flow_dlb</t>
+          <t>off_transit_flw_deb</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Peak Walk Flow drive-local bus</t>
+          <t>Off peak Transit Flow drive-local bus</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6238,27 +6238,27 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>output\asgn\AM Walk Flow dlb.bin</t>
+          <t>output\asgn\OFF Transit Flow deb.bin</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>output\asgn\AM Walk Flow dlb.bin</t>
+          <t>output\asgn\OFF Transit Flow deb.bin</t>
         </is>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>off_walk_flow_wlb</t>
+          <t>peak_walk_flow_web</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Off peak Walk Flow walk-local bus</t>
+          <t>Peak Walk Flow walk-local bus</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6278,27 +6278,27 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Walk Flow wlb.bin</t>
+          <t>output\asgn\AM Walk Flow web.bin</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Walk Flow wlb.bin</t>
+          <t>output\asgn\AM Walk Flow web.bin</t>
         </is>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>off_walk_flow_dlb</t>
+          <t>peak_walk_flow_deb</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Off peak Walk Flow drive-local bus</t>
+          <t>Peak Walk Flow drive-local bus</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6318,27 +6318,27 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Walk Flow dlb.bin</t>
+          <t>output\asgn\AM Walk Flow deb.bin</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Walk Flow dlb.bin</t>
+          <t>output\asgn\AM Walk Flow deb.bin</t>
         </is>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>peak_transit_onoff_wlb</t>
+          <t>off_walk_flow_web</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Peak Transit OnOff walk-local bus</t>
+          <t>Off peak Walk Flow walk-local bus</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6358,27 +6358,27 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit OnOff wlb.bin</t>
+          <t>output\asgn\OFF Walk Flow web.bin</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit OnOff wlb.bin</t>
+          <t>output\asgn\OFF Walk Flow web.bin</t>
         </is>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>peak_transit_onoff_dlb</t>
+          <t>off_walk_flow_deb</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Peak Transit OnOff drive-express bus</t>
+          <t>Off peak Walk Flow drive-local bus</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -6398,27 +6398,27 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit OnOff dlb.bin</t>
+          <t>output\asgn\OFF Walk Flow deb.bin</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit OnOff dlb.bin</t>
+          <t>output\asgn\OFF Walk Flow deb.bin</t>
         </is>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>off_transit_onoff_wlb</t>
+          <t>peak_transit_onoff_web</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Off peak Transit OnOff walk-local bus</t>
+          <t>Peak Transit OnOff walk-local bus</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -6438,27 +6438,27 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit OnOff wlb.bin</t>
+          <t>output\asgn\AM Transit OnOff web.bin</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit OnOff wlb.bin</t>
+          <t>output\asgn\AM Transit OnOff web.bin</t>
         </is>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>off_transit_onoff_dlb</t>
+          <t>peak_transit_onoff_deb</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Off peak Transit OnOff drive-local bus</t>
+          <t>Peak Transit OnOff drive-express bus</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -6478,27 +6478,27 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit OnOff dlb.bin</t>
+          <t>output\asgn\AM Transit OnOff deb.bin</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit OnOff dlb.bin</t>
+          <t>output\asgn\AM Transit OnOff deb.bin</t>
         </is>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>peak_transit_flw_web</t>
+          <t>off_transit_onoff_web</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Peak Transit Flow walk-local bus</t>
+          <t>Off peak Transit OnOff walk-local bus</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -6518,27 +6518,27 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit Flow web.bin</t>
+          <t>output\asgn\OFF Transit OnOff web.bin</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit Flow web.bin</t>
+          <t>output\asgn\OFF Transit OnOff web.bin</t>
         </is>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>peak_transit_flw_deb</t>
+          <t>off_transit_onoff_deb</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Peak Transit Flow drive-local bus</t>
+          <t>Off peak Transit OnOff drive-local bus</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -6558,27 +6558,27 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit Flow deb.bin</t>
+          <t>output\asgn\OFF Transit OnOff deb.bin</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit Flow deb.bin</t>
+          <t>output\asgn\OFF Transit OnOff deb.bin</t>
         </is>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>off_transit_flw_web</t>
+          <t>peak_transit_flw_wpm1</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Off-peak Transit Flow walk-local bus</t>
+          <t>Peak Transit Flow walk-local bus</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -6598,27 +6598,27 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit Flow web.bin</t>
+          <t>output\asgn\AM Transit Flow wpm1.bin</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit Flow web.bin</t>
+          <t>output\asgn\AM Transit Flow wpm1.bin</t>
         </is>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>off_transit_flw_deb</t>
+          <t>peak_transit_flw_dpm1</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Off peak Transit Flow drive-local bus</t>
+          <t>Peak Transit Flow drive-local bus</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -6638,27 +6638,27 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit Flow deb.bin</t>
+          <t>output\asgn\AM Transit Flow dpm1.bin</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit Flow deb.bin</t>
+          <t>output\asgn\AM Transit Flow dpm1.bin</t>
         </is>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>peak_walk_flow_web</t>
+          <t>off_transit_flw_wpm1</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Peak Walk Flow walk-local bus</t>
+          <t>Off-peak Transit Flow walk-local bus</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -6678,27 +6678,27 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>output\asgn\AM Walk Flow web.bin</t>
+          <t>output\asgn\OFF Transit Flow wpm1.bin</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>output\asgn\AM Walk Flow web.bin</t>
+          <t>output\asgn\OFF Transit Flow wpm1.bin</t>
         </is>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>peak_walk_flow_deb</t>
+          <t>off_transit_flw_dpm1</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Peak Walk Flow drive-local bus</t>
+          <t>Off peak Transit Flow drive-local bus</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -6718,27 +6718,27 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>output\asgn\AM Walk Flow deb.bin</t>
+          <t>output\asgn\OFF Transit Flow dpm1.bin</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>output\asgn\AM Walk Flow deb.bin</t>
+          <t>output\asgn\OFF Transit Flow dpm1.bin</t>
         </is>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>off_walk_flow_web</t>
+          <t>peak_walk_flow_wpm1</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Off peak Walk Flow walk-local bus</t>
+          <t>Peak Walk Flow walk-local bus</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -6758,27 +6758,27 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Walk Flow web.bin</t>
+          <t>output\asgn\AM Walk Flow wpm1.bin</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Walk Flow web.bin</t>
+          <t>output\asgn\AM Walk Flow wpm1.bin</t>
         </is>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>off_walk_flow_deb</t>
+          <t>peak_walk_flow_dpm1</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Off peak Walk Flow drive-local bus</t>
+          <t>Peak Walk Flow drive-local bus</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -6798,27 +6798,27 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Walk Flow deb.bin</t>
+          <t>output\asgn\AM Walk Flow dpm1.bin</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Walk Flow deb.bin</t>
+          <t>output\asgn\AM Walk Flow dpm1.bin</t>
         </is>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>peak_transit_onoff_web</t>
+          <t>off_walk_flow_wpm1</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Peak Transit OnOff walk-local bus</t>
+          <t>Off peak Walk Flow walk-local bus</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -6838,27 +6838,27 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit OnOff web.bin</t>
+          <t>output\asgn\OFF Walk Flow wpm1.bin</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit OnOff web.bin</t>
+          <t>output\asgn\OFF Walk Flow wpm1.bin</t>
         </is>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>peak_transit_onoff_deb</t>
+          <t>off_walk_flow_dpm1</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Peak Transit OnOff drive-express bus</t>
+          <t>Off peak Walk Flow drive-local bus</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -6878,27 +6878,27 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit OnOff deb.bin</t>
+          <t>output\asgn\OFF Walk Flow dpm1.bin</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit OnOff deb.bin</t>
+          <t>output\asgn\OFF Walk Flow dpm1.bin</t>
         </is>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>off_transit_onoff_web</t>
+          <t>peak_transit_onoff_wpm1</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Off peak Transit OnOff walk-local bus</t>
+          <t>Peak Transit OnOff walk-local bus</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -6918,27 +6918,27 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit OnOff web.bin</t>
+          <t>output\asgn\AM Transit OnOff wpm1.bin</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit OnOff web.bin</t>
+          <t>output\asgn\AM Transit OnOff wpm1.bin</t>
         </is>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>off_transit_onoff_deb</t>
+          <t>peak_transit_onoff_dpm1</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Off peak Transit OnOff drive-local bus</t>
+          <t>Peak Transit OnOff drive-express bus</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -6958,27 +6958,27 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit OnOff deb.bin</t>
+          <t>output\asgn\AM Transit OnOff dpm1.bin</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit OnOff deb.bin</t>
+          <t>output\asgn\AM Transit OnOff dpm1.bin</t>
         </is>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>peak_transit_flw_wpm1</t>
+          <t>off_transit_onoff_wpm1</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Peak Transit Flow walk-local bus</t>
+          <t>Off peak Transit OnOff walk-local bus</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -6998,27 +6998,27 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit Flow wpm1.bin</t>
+          <t>output\asgn\OFF Transit OnOff wpm1.bin</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit Flow wpm1.bin</t>
+          <t>output\asgn\OFF Transit OnOff wpm1.bin</t>
         </is>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>peak_transit_flw_dpm1</t>
+          <t>off_transit_onoff_dpm1</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Peak Transit Flow drive-local bus</t>
+          <t>Off peak Transit OnOff drive-local bus</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -7038,27 +7038,27 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit Flow dpm1.bin</t>
+          <t>output\asgn\OFF Transit OnOff dpm1.bin</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit Flow dpm1.bin</t>
+          <t>output\asgn\OFF Transit OnOff dpm1.bin</t>
         </is>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>off_transit_flw_wpm1</t>
+          <t>peak_transit_flw_wpm2</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Off-peak Transit Flow walk-local bus</t>
+          <t>Peak Transit Flow walk-local bus</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -7078,27 +7078,27 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit Flow wpm1.bin</t>
+          <t>output\asgn\AM Transit Flow wpm2.bin</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit Flow wpm1.bin</t>
+          <t>output\asgn\AM Transit Flow wpm2.bin</t>
         </is>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>off_transit_flw_dpm1</t>
+          <t>peak_transit_flw_dpm2</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Off peak Transit Flow drive-local bus</t>
+          <t>Peak Transit Flow drive-local bus</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -7118,27 +7118,27 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit Flow dpm1.bin</t>
+          <t>output\asgn\AM Transit Flow dpm2.bin</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit Flow dpm1.bin</t>
+          <t>output\asgn\AM Transit Flow dpm2.bin</t>
         </is>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>peak_walk_flow_wpm1</t>
+          <t>off_transit_flw_wpm2</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Peak Walk Flow walk-local bus</t>
+          <t>Off-peak Transit Flow walk-local bus</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -7158,27 +7158,27 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>output\asgn\AM Walk Flow wpm1.bin</t>
+          <t>output\asgn\OFF Transit Flow wpm2.bin</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>output\asgn\AM Walk Flow wpm1.bin</t>
+          <t>output\asgn\OFF Transit Flow wpm2.bin</t>
         </is>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>peak_walk_flow_dpm1</t>
+          <t>off_transit_flw_dpm2</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Peak Walk Flow drive-local bus</t>
+          <t>Off peak Transit Flow drive-local bus</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -7198,27 +7198,27 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>output\asgn\AM Walk Flow dpm1.bin</t>
+          <t>output\asgn\OFF Transit Flow dpm2.bin</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>output\asgn\AM Walk Flow dpm1.bin</t>
+          <t>output\asgn\OFF Transit Flow dpm2.bin</t>
         </is>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>off_walk_flow_wpm1</t>
+          <t>peak_walk_flow_wpm2</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Off peak Walk Flow walk-local bus</t>
+          <t>Peak Walk Flow walk-local bus</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -7238,27 +7238,27 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Walk Flow wpm1.bin</t>
+          <t>output\asgn\AM Walk Flow wpm2.bin</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Walk Flow wpm1.bin</t>
+          <t>output\asgn\AM Walk Flow wpm2.bin</t>
         </is>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>off_walk_flow_dpm1</t>
+          <t>peak_walk_flow_dpm2</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Off peak Walk Flow drive-local bus</t>
+          <t>Peak Walk Flow drive-local bus</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -7278,27 +7278,27 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Walk Flow dpm1.bin</t>
+          <t>output\asgn\AM Walk Flow dpm2.bin</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Walk Flow dpm1.bin</t>
+          <t>output\asgn\AM Walk Flow dpm2.bin</t>
         </is>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>peak_transit_onoff_wpm1</t>
+          <t>off_walk_flow_wpm2</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Peak Transit OnOff walk-local bus</t>
+          <t>Off peak Walk Flow walk-local bus</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -7318,27 +7318,27 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit OnOff wpm1.bin</t>
+          <t>output\asgn\OFF Walk Flow wpm2.bin</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit OnOff wpm1.bin</t>
+          <t>output\asgn\OFF Walk Flow wpm2.bin</t>
         </is>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>peak_transit_onoff_dpm1</t>
+          <t>off_walk_flow_dpm2</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Peak Transit OnOff drive-express bus</t>
+          <t>Off peak Walk Flow drive-local bus</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -7358,27 +7358,27 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit OnOff dpm1.bin</t>
+          <t>output\asgn\OFF Walk Flow dpm2.bin</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit OnOff dpm1.bin</t>
+          <t>output\asgn\OFF Walk Flow dpm2.bin</t>
         </is>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>off_transit_onoff_wpm1</t>
+          <t>peak_transit_onoff_wpm2</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Off peak Transit OnOff walk-local bus</t>
+          <t>Peak Transit OnOff walk-local bus</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -7398,27 +7398,27 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit OnOff wpm1.bin</t>
+          <t>output\asgn\AM Transit OnOff wpm2.bin</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit OnOff wpm1.bin</t>
+          <t>output\asgn\AM Transit OnOff wpm2.bin</t>
         </is>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>off_transit_onoff_dpm1</t>
+          <t>peak_transit_onoff_dpm2</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Off peak Transit OnOff drive-local bus</t>
+          <t>Peak Transit OnOff drive-express bus</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -7438,27 +7438,27 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit OnOff dpm1.bin</t>
+          <t>output\asgn\AM Transit OnOff dpm2.bin</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit OnOff dpm1.bin</t>
+          <t>output\asgn\AM Transit OnOff dpm2.bin</t>
         </is>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>peak_transit_flw_wpm2</t>
+          <t>off_transit_onoff_wpm2</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Peak Transit Flow walk-local bus</t>
+          <t>Off peak Transit OnOff walk-local bus</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -7478,27 +7478,27 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit Flow wpm2.bin</t>
+          <t>output\asgn\OFF Transit OnOff wpm2.bin</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit Flow wpm2.bin</t>
+          <t>output\asgn\OFF Transit OnOff wpm2.bin</t>
         </is>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>peak_transit_flw_dpm2</t>
+          <t>off_transit_onoff_dpm2</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Peak Transit Flow drive-local bus</t>
+          <t>Off peak Transit OnOff drive-local bus</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -7518,27 +7518,27 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit Flow dpm2.bin</t>
+          <t>output\asgn\OFF Transit OnOff dpm2.bin</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit Flow dpm2.bin</t>
+          <t>output\asgn\OFF Transit OnOff dpm2.bin</t>
         </is>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>off_transit_flw_wpm2</t>
+          <t>peak_trn_summary_flow</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Off-peak Transit Flow walk-local bus</t>
+          <t>Peak transit flow summary</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -7558,27 +7558,27 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit Flow wpm2.bin</t>
+          <t>output\asgn\AM Trn Summary Flow.bin</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit Flow wpm2.bin</t>
+          <t>output\asgn\AM Trn Summary Flow.bin</t>
         </is>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>off_transit_flw_dpm2</t>
+          <t>off_trn_summary_flow</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Off peak Transit Flow drive-local bus</t>
+          <t>Off peak transit flow summary</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -7598,27 +7598,27 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit Flow dpm2.bin</t>
+          <t>output\asgn\OFF Trn Summary Flow.bin</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit Flow dpm2.bin</t>
+          <t>output\asgn\OFF Trn Summary Flow.bin</t>
         </is>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>peak_walk_flow_wpm2</t>
+          <t>peak_trn_summary_onoff</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Peak Walk Flow walk-local bus</t>
+          <t>Peak transit OnOff summary</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -7638,27 +7638,27 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>output\asgn\AM Walk Flow wpm2.bin</t>
+          <t>output\asgn\AM Trn Summary OnOff.bin</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>output\asgn\AM Walk Flow wpm2.bin</t>
+          <t>output\asgn\AM Trn Summary OnOff.bin</t>
         </is>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>peak_walk_flow_dpm2</t>
+          <t>off_trn_summary_onoff</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Peak Walk Flow drive-local bus</t>
+          <t>Off peak transit OnOff summary</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -7678,27 +7678,27 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>output\asgn\AM Walk Flow dpm2.bin</t>
+          <t>output\asgn\OFF Trn Summary OnOff.bin</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>output\asgn\AM Walk Flow dpm2.bin</t>
+          <t>output\asgn\OFF Trn Summary OnOff.bin</t>
         </is>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>off_walk_flow_wpm2</t>
+          <t>peak_transit_summary_rpt</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Off peak Walk Flow walk-local bus</t>
+          <t>Peak transit summary report</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -7718,27 +7718,27 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Walk Flow wpm2.bin</t>
+          <t>output\asgn\AM Transit Summary Rpt.bin</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Walk Flow wpm2.bin</t>
+          <t>output\asgn\AM Transit Summary Rpt.bin</t>
         </is>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>off_walk_flow_dpm2</t>
+          <t>off_transit_summary_rpt</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Off peak Walk Flow drive-local bus</t>
+          <t>Off peak transit summary report</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -7758,27 +7758,27 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Walk Flow dpm2.bin</t>
+          <t>output\asgn\OFF Transit Summary Rpt.bin</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Walk Flow dpm2.bin</t>
+          <t>output\asgn\OFF Transit Summary Rpt.bin</t>
         </is>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>peak_transit_onoff_wpm2</t>
+          <t>FT_sum</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Peak Transit OnOff walk-local bus</t>
+          <t>Facility Type Summary</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -7788,7 +7788,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7798,27 +7798,27 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit OnOff wpm2.bin</t>
+          <t>Reports\Facility Type Summary.bin</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit OnOff wpm2.bin</t>
+          <t>Reports\Facility Type Summary.bin</t>
         </is>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>peak_transit_onoff_dpm2</t>
+          <t>AT_sum</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Peak Transit OnOff drive-express bus</t>
+          <t>Area Type Summary</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -7828,7 +7828,7 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -7838,27 +7838,27 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit OnOff dpm2.bin</t>
+          <t>Reports\Area Type Summary.bin</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit OnOff dpm2.bin</t>
+          <t>Reports\Area Type Summary.bin</t>
         </is>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>off_transit_onoff_wpm2</t>
+          <t>CO_sum</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Off peak Transit OnOff walk-local bus</t>
+          <t>County Summary</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -7868,7 +7868,7 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -7878,27 +7878,27 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit OnOff wpm2.bin</t>
+          <t>Reports\County Summary.bin</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit OnOff wpm2.bin</t>
+          <t>Reports\County Summary.bin</t>
         </is>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>off_transit_onoff_dpm2</t>
+          <t>xtabvmt</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Off peak Transit OnOff drive-local bus</t>
+          <t>VMT ratio Summary by AT, FT</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -7918,27 +7918,27 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit OnOff dpm2.bin</t>
+          <t>Reports\Xtab VMT.bin</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit OnOff dpm2.bin</t>
+          <t>Reports\Xtab VMT.bin</t>
         </is>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>peak_trn_summary_flow</t>
+          <t>xtabspeed</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Peak transit flow summary</t>
+          <t>Model/Observed AM Speed Summary by AT, FT</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -7958,27 +7958,27 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>output\asgn\AM Trn Summary Flow.bin</t>
+          <t>Reports\Xtab Speed.bin</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>output\asgn\AM Trn Summary Flow.bin</t>
+          <t>Reports\Xtab Speed.bin</t>
         </is>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>off_trn_summary_flow</t>
+          <t>xtabobspd</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Off peak transit flow summary</t>
+          <t>Observed AM Speed Summary by AT, FT</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -7988,7 +7988,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7998,27 +7998,27 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Trn Summary Flow.bin</t>
+          <t>Reports\xtabobspd.bin</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Trn Summary Flow.bin</t>
+          <t>Reports\xtabobspd.bin</t>
         </is>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>peak_trn_summary_onoff</t>
+          <t>xtabavgspeed</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Peak transit OnOff summary</t>
+          <t>Average Model AM Speed Summary by AT, FT</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -8028,7 +8028,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -8038,27 +8038,27 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>output\asgn\AM Trn Summary OnOff.bin</t>
+          <t>Reports\xtabavgspeed.bin</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>output\asgn\AM Trn Summary OnOff.bin</t>
+          <t>Reports\xtabavgspeed.bin</t>
         </is>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>off_trn_summary_onoff</t>
+          <t>hpmsumf</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Off peak transit OnOff summary</t>
+          <t>Summary of VMT by County and HPMS</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -8068,7 +8068,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -8078,27 +8078,29 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Trn Summary OnOff.bin</t>
+          <t>Reports\HPMS_VMT.bin</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Trn Summary OnOff.bin</t>
+          <t>Reports\HPMS_VMT.bin</t>
         </is>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>149</v>
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>peak_transit_summary_rpt</t>
+          <t>PARAMETER</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Peak transit summary report</t>
+          <t/>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -8108,7 +8110,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>7</t>
+          <t/>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -8118,37 +8120,37 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit Summary Rpt.bin</t>
+          <t/>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>output\asgn\AM Transit Summary Rpt.bin</t>
+          <t/>
         </is>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>150</v>
+        <v>1</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>off_transit_summary_rpt</t>
+          <t>aoc</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Off peak transit summary report</t>
+          <t>Auto operating cost, dollars per mile</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t/>
+          <t>5</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>7</t>
+          <t/>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -8158,37 +8160,37 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit Summary Rpt.bin</t>
+          <t>0.148</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>output\asgn\OFF Transit Summary Rpt.bin</t>
+          <t>0.148</t>
         </is>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FT_sum</t>
+          <t>civt</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Facility Type Summary</t>
+          <t>In-vehicle Logit coefficient (HBW, HBO, NHB)</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t/>
+          <t>5</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>6</t>
+          <t/>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -8198,37 +8200,37 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Reports\Facility Type Summary.bin</t>
+          <t>-0.023,-0.016,-0.018</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Reports\Facility Type Summary.bin</t>
+          <t>-0.023,-0.016,-0.018</t>
         </is>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>AT_sum</t>
+          <t>vot</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Area Type Summary</t>
+          <t>Value of time</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t/>
+          <t>4</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>6</t>
+          <t/>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -8238,37 +8240,37 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Reports\Area Type Summary.bin</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Reports\Area Type Summary.bin</t>
+          <t>0.2</t>
         </is>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>153</v>
+        <v>4</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>CO_sum</t>
+          <t>conv</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>County Summary</t>
+          <t>Convergence</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t/>
+          <t>3,6</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>6</t>
+          <t/>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -8278,37 +8280,37 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Reports\County Summary.bin</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Reports\County Summary.bin</t>
+          <t>0.0004</t>
         </is>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>154</v>
+        <v>5</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>xtabvmt</t>
+          <t>Retain Logsums</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>VMT ratio Summary by AT, FT</t>
+          <t>1= True  and 0 = False (MCLogsum_&lt;timeperiod&gt;_</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t/>
+          <t>4,5</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>6</t>
+          <t/>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -8318,37 +8320,37 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Reports\Xtab VMT.bin</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Reports\Xtab VMT.bin</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>155</v>
+        <v>6</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>xtabspeed</t>
+          <t>Retain DC Logsums</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Model/Observed AM Speed Summary by AT, FT</t>
+          <t>1= True  and 0 = False (MCLogsum_&lt;timeperiod&gt;_</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t/>
+          <t>4</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>6</t>
+          <t/>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -8358,37 +8360,37 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Reports\Xtab Speed.bin</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Reports\Xtab Speed.bin</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>xtabobspd</t>
+          <t>Retain Probabilities</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Observed AM Speed Summary by AT, FT</t>
+          <t>1= True  and 0 = False (Probabilities_&lt;timeper</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t/>
+          <t>5</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>6</t>
+          <t/>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -8398,37 +8400,37 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Reports\xtabobspd.bin</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Reports\xtabobspd.bin</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>xtabavgspeed</t>
+          <t>write_summit</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Average Model AM Speed Summary by AT, FT</t>
+          <t>1= True  and 0 = False (SummitMCLogsum_&lt;timepe</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t/>
+          <t>5</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>6</t>
+          <t/>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -8438,37 +8440,37 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Reports\xtabavgspeed.bin</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>Reports\xtabavgspeed.bin</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>158</v>
+        <v>9</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>hpmsumf</t>
+          <t>workerModel_sizeCoeff</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Summary of VMT by County and HPMS</t>
+          <t/>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t/>
+          <t>2</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>6</t>
+          <t/>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -8478,24 +8480,22 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>Reports\HPMS_VMT.bin</t>
+          <t>0.524843</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Reports\HPMS_VMT.bin</t>
+          <t>0.524843</t>
         </is>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
+      <c r="A212">
+        <v>10</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>PARAMETER</t>
+          <t>workerModel_Constant</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -8505,7 +8505,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t/>
+          <t>2</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -8520,32 +8520,32 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t/>
+          <t>-0.224535</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t/>
+          <t>-0.224535</t>
         </is>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>aoc</t>
+          <t>exclusionLinks</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Auto operating cost, dollars per mile</t>
+          <t>Excludes links from counting Intersections in MDM</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -8560,32 +8560,32 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>0.148</t>
+          <t>(CTP_CD = 1 | CTP_CD = 2 | CTP_CD = 99 )</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>0.148</t>
+          <t>(CTP_CD = 1 | CTP_CD = 2 | CTP_CD = 99 )</t>
         </is>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>civt</t>
+          <t>max_izone</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>In-vehicle Logit coefficient (HBW, HBO, NHB)</t>
+          <t>Maximum number of internal Zones</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1,2,3,4,5,6</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -8600,32 +8600,32 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>-0.023,-0.016,-0.018</t>
+          <t>643</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>-0.023,-0.016,-0.018</t>
+          <t>643</t>
         </is>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>vot</t>
+          <t>minLinks_at_Intersection</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Value of time</t>
+          <t>Defines intersection</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -8640,32 +8640,32 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>conv</t>
+          <t>buffer_size</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Convergence</t>
+          <t>MDM buffer size</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -8680,32 +8680,32 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Retain Logsums</t>
+          <t>MaxIPFIter</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>1= True  and 0 = False (MCLogsum_&lt;timeperiod&gt;_</t>
+          <t>Maximum IPF Iterations</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
@@ -8720,32 +8720,32 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Retain DC Logsums</t>
+          <t>Season</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>1= True  and 0 = False (MCLogsum_&lt;timeperiod&gt;_</t>
+          <t>One of the following: "spring", "summer", "fall","winter"</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -8760,32 +8760,32 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>spring</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>spring</t>
         </is>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Retain Probabilities</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>1= True  and 0 = False (Probabilities_&lt;timeper</t>
+          <t>Model Year</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -8800,32 +8800,32 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2040</t>
         </is>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>write_summit</t>
+          <t>MaxHwyAsgnIters</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>1= True  and 0 = False (SummitMCLogsum_&lt;timepe</t>
+          <t>Maximum highway assignment Iterations</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -8840,32 +8840,32 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>workerModel_sizeCoeff</t>
+          <t>HoursByPeriod</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t/>
+          <t>time period definitions {AM, MD, PM, NT}</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -8880,32 +8880,32 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>0.524843</t>
+          <t>3,6,3,6</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>0.524843</t>
+          <t>3,6,3,6</t>
         </is>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>workerModel_Constant</t>
+          <t>PCE</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t/>
+          <t>PCE {DA,SR2,SR3+,CV-DA,CV-,CV-Trk,RV,Ext-DA,Ext-Trk,Vis}</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -8920,32 +8920,32 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>-0.224535</t>
+          <t>1,1,1,1,1.2,1.5,1,1,1.5,1</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>-0.224535</t>
+          <t>1,1,1,1,1.2,1.5,1,1,1.5,1</t>
         </is>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>exclusionLinks</t>
+          <t>Freeway Alpha</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Excludes links from counting Intersections in MDM</t>
+          <t>Freeway and Expressway VDF Alpha</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -8960,32 +8960,32 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>(CTP_CD = 1 | CTP_CD = 2 | CTP_CD = 99 )</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>(CTP_CD = 1 | CTP_CD = 2 | CTP_CD = 99 )</t>
+          <t>0.83</t>
         </is>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>max_izone</t>
+          <t>Freeway Beta</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Maximum number of internal Zones</t>
+          <t>Freeway and Expressway VDF Beta</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>1,2,3,4,5,6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9000,32 +9000,32 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>minLinks_at_Intersection</t>
+          <t>Expressway Alpha</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Defines intersection</t>
+          <t>Expressway VDF Alpha</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -9040,32 +9040,32 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0.83</t>
         </is>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>buffer_size</t>
+          <t>Expressway Beta</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>MDM buffer size</t>
+          <t>Expressway VDF Beta</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -9080,32 +9080,32 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>5.5</t>
         </is>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>MaxIPFIter</t>
+          <t>Boulevard Alpha</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Maximum IPF Iterations</t>
+          <t>Boulevard VDF Alpha</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -9120,32 +9120,32 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0.15</t>
         </is>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Season</t>
+          <t>Boulevard Beta</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>One of the following: "spring", "summer", "fall","winter"</t>
+          <t>Boulevard VDF Beta</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -9160,32 +9160,32 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>spring</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>spring</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Major Tfare Alpha</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Model Year</t>
+          <t>Major Thoroughfare VDFAlpha</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -9200,32 +9200,32 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2040</t>
+          <t>0.15</t>
         </is>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>MaxHwyAsgnIters</t>
+          <t>Major Tfare Beta</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Maximum highway assignment Iterations</t>
+          <t>Major Thoroughfare VDF Beta</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -9240,32 +9240,32 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>4.5</t>
         </is>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>HoursByPeriod</t>
+          <t>Minor Tfare Alpha</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>time period definitions {AM, MD, PM, NT}</t>
+          <t>Minor Thoroughfare VDF Alpha</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -9280,32 +9280,32 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>3,6,3,6</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>3,6,3,6</t>
+          <t>0.9</t>
         </is>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>PCE</t>
+          <t>Minor Tfare Beta</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>PCE {DA,SR2,SR3+,CV-DA,CV-,CV-Trk,RV,Ext-DA,Ext-Trk,Vis}</t>
+          <t>Minor Thoroughfare VDF Beta</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -9320,27 +9320,27 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>1,1,1,1,1.2,1.5,1,1,1.5,1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>1,1,1,1,1.2,1.5,1,1,1.5,1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Freeway Alpha</t>
+          <t>Rural Hwy Alpha</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Freeway and Expressway VDF Alpha</t>
+          <t>Rural Highway VDF Alpha</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -9360,27 +9360,27 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.9</t>
         </is>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Freeway Beta</t>
+          <t>Rural Hwy Beta</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Freeway and Expressway VDF Beta</t>
+          <t>Rural Highway VDF Beta</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -9411,16 +9411,16 @@
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Expressway Alpha</t>
+          <t>ArchivePreviousOutput</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Expressway VDF Alpha</t>
+          <t>Archieves previous output folder from being overwrittern</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -9440,410 +9440,10 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>24</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Expressway Beta</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Expressway VDF Beta</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G236" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>5.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>25</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Boulevard Alpha</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Boulevard VDF Alpha</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G237" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>26</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Boulevard Beta</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>Boulevard VDF Beta</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>27</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Major Tfare Alpha</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Major Thoroughfare VDFAlpha</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G239" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>28</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Major Tfare Beta</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>Major Thoroughfare VDF Beta</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F240" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G240" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>29</v>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Minor Tfare Alpha</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>Minor Thoroughfare VDF Alpha</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F241" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G241" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>30</v>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Minor Tfare Beta</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>Minor Thoroughfare VDF Beta</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F242" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G242" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>31</v>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Rural Hwy Alpha</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Rural Highway VDF Alpha</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G243" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>0.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>32</v>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Rural Hwy Beta</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Rural Highway VDF Beta</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F244" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G244" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>33</v>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>ArchivePreviousOutput</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Archieves previous output folder from being overwrittern</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F245" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G245" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H245" t="inlineStr">
         <is>
           <t>1</t>
         </is>
